--- a/annales/2022/Annale2022.xlsx
+++ b/annales/2022/Annale2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxp33\PortableApps\UwAmp\www\dcg-ue8\annales\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3453E-4CA8-4DEC-9FA5-B07AB7245C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B53D62-827B-40B2-9712-804F9B077BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FCF877C6-8162-407F-9531-FBE0BE973E94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FCF877C6-8162-407F-9531-FBE0BE973E94}"/>
   </bookViews>
   <sheets>
     <sheet name="Consignes" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>Numéro de réservation</t>
   </si>
@@ -124,30 +124,15 @@
     <t>N</t>
   </si>
   <si>
-    <t>RHNM0.203N5004</t>
-  </si>
-  <si>
-    <t>CL/coT753</t>
-  </si>
-  <si>
     <t>MCS</t>
   </si>
   <si>
     <t>RHNM0203N5005</t>
   </si>
   <si>
-    <t>CUDON2008</t>
-  </si>
-  <si>
     <t>WM</t>
   </si>
   <si>
-    <t>RHNM0.203.55005</t>
-  </si>
-  <si>
-    <t>CL,/DON2008</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
@@ -160,18 +145,9 @@
     <t>RHNM3003N7601</t>
   </si>
   <si>
-    <t>CL/FAR152C.4</t>
-  </si>
-  <si>
     <t>MPL</t>
   </si>
   <si>
-    <t>RHNM3003N 7601</t>
-  </si>
-  <si>
-    <t>CL/FAR1520.4</t>
-  </si>
-  <si>
     <t>MSJ</t>
   </si>
   <si>
@@ -185,12 +161,6 @@
   </si>
   <si>
     <t>CL/GAR42815</t>
-  </si>
-  <si>
-    <t>RSHB3(13N7604</t>
-  </si>
-  <si>
-    <t>H E U42816</t>
   </si>
   <si>
     <t>MRD</t>
@@ -760,6 +730,24 @@
   </si>
   <si>
     <t>End Sub</t>
+  </si>
+  <si>
+    <t>RHNM0203N5004</t>
+  </si>
+  <si>
+    <t>CL/COT753</t>
+  </si>
+  <si>
+    <t>CL/DON2008</t>
+  </si>
+  <si>
+    <t>CL/FAR15204</t>
+  </si>
+  <si>
+    <t>RSHB3003N7604</t>
+  </si>
+  <si>
+    <t>CL/HEU42816</t>
   </si>
 </sst>
 </file>
@@ -1214,9 +1202,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1232,15 +1217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1305,6 +1281,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,477 +1751,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="39"/>
+    </row>
+    <row r="4" spans="2:2" ht="41.4" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
+    </row>
+    <row r="6" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="41"/>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="41"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="41"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="41"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="41"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="41"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="41"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="41"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B30" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B32" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="43"/>
-    </row>
-    <row r="4" spans="2:2" ht="41.4" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="43"/>
-    </row>
-    <row r="6" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="43" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="43"/>
-    </row>
-    <row r="8" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B8" s="43" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="41"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="41"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="42"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="42"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="40"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" s="43"/>
-    </row>
-    <row r="10" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="43" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="41"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="41"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="43"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="43" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="40"/>
+    </row>
+    <row r="53" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B53" s="40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" s="44"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="44" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="41"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="41"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="45" t="s">
+    <row r="57" spans="2:2" ht="41.4" x14ac:dyDescent="0.4">
+      <c r="B57" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B19" s="44" t="s">
+    <row r="58" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B58" s="39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="40" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="39"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="39"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="39"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="40"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="43"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="39"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="45"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="40" t="s">
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="40" t="s">
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="40" t="s">
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="40" t="s">
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="40" t="s">
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="40" t="s">
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="39"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B30" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B32" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="45"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="45"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="45"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="45"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="45"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="45"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="45"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="45"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="46"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="45"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="46"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="44"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="45"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="45"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="44"/>
-    </row>
-    <row r="53" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B53" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="45"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="45"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="41.4" x14ac:dyDescent="0.4">
-      <c r="B57" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B58" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" s="43"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" s="43"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" s="43"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B67" s="44"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B68" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B69" s="47"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B70" s="43" t="s">
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" s="43"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" s="43" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B73" s="43" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" s="39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" s="43" t="s">
+    <row r="85" spans="2:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="39"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B75" s="43" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B76" s="43" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" s="45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B77" s="43" t="s">
+    <row r="89" spans="2:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B78" s="43" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" s="39"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B79" s="43" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B80" s="43"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" s="43" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" s="39"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B82" s="43" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" s="39"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" s="39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B83" s="43" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" s="39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B84" s="43" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" s="39"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" s="43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="43"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B86" s="48" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" s="39"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" s="39"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" s="39"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B103" s="39"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B104" s="39"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B105" s="39"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B106" s="39"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B107" s="39"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B108" s="39"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B109" s="39"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B110" s="39"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B111" s="39"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B112" s="39"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B113" s="39"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B114" s="39"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B115" s="39"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B116" s="39"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B117" s="39" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B87" s="49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B88" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B90" s="43"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B91" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B92" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B93" s="43"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B94" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B95" s="43"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B96" s="43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B97" s="43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B98" s="43"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B99" s="47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B100" s="43"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B101" s="43"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B102" s="43"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B103" s="43"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B104" s="43"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B105" s="43"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B106" s="43"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B107" s="43"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B108" s="43"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B109" s="43"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B110" s="43"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B111" s="43"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B112" s="43"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B113" s="43"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B114" s="43"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B115" s="43"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B116" s="43"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B117" s="43" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2247,9 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A26904C-AF5D-4266-BF32-716C902D0B78}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2268,566 +2254,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="22">
         <v>44574</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="28">
         <v>4</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="51">
+      <c r="H2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="47">
         <v>1872</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52">
+      <c r="J2" s="7"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48">
         <v>3744</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>44574</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <v>4</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5">
         <v>1578</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="27">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="23">
         <v>1578</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>44574</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5">
         <v>1188</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>792</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="27">
+      <c r="K4" s="4"/>
+      <c r="L4" s="23">
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>44574</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="24">
         <v>4</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>1452</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10">
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9">
         <v>290400</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>44574</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1440</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1440</v>
+      </c>
+      <c r="K6" s="21">
+        <v>-216</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E7" s="20">
         <v>44574</v>
       </c>
-      <c r="F6" s="5">
-        <v>12</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="24">
         <v>4</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1440</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1440</v>
-      </c>
-      <c r="K6" s="25">
-        <v>-216</v>
-      </c>
-      <c r="L6" s="27">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="H7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1392</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="23">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>44574</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1518</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="23">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
-        <v>44574</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E9" s="20">
+        <v>44581</v>
+      </c>
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G9" s="24">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1872</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>-8400</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>44581</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="24">
         <v>4</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1392</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="27">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="H10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1524</v>
+      </c>
+      <c r="J10" s="5">
+        <v>508</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="23">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>44581</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="24">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1188</v>
+      </c>
+      <c r="J11" s="5">
+        <v>396</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="23">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>44581</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="24">
+        <v>3</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="21">
+        <v>14.4</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21">
+        <v>-84</v>
+      </c>
+      <c r="L12" s="23">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <v>44574</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>44581</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="24">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1104</v>
+      </c>
+      <c r="J13" s="5">
+        <v>552</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="23">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>44588</v>
+      </c>
+      <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="28">
-        <v>4</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1518</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="27">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>44581</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="G14" s="24">
         <v>3</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1020</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="21">
+        <v>-84</v>
+      </c>
+      <c r="L14" s="23">
         <v>1872</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <v>-8400</v>
-      </c>
-      <c r="L9" s="27">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
-        <v>44581</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="28">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1524</v>
-      </c>
-      <c r="J10" s="6">
-        <v>508</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="27">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E19" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="24">
-        <v>44581</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="28">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1188</v>
-      </c>
-      <c r="J11" s="6">
-        <v>396</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="27">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="24">
-        <v>44581</v>
-      </c>
-      <c r="F12" s="5">
-        <v>6</v>
-      </c>
-      <c r="G12" s="28">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="25">
-        <v>14.4</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="25">
-        <v>-84</v>
-      </c>
-      <c r="L12" s="27">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24">
-        <v>44581</v>
-      </c>
-      <c r="F13" s="5">
-        <v>9</v>
-      </c>
-      <c r="G13" s="28">
-        <v>4</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1104</v>
-      </c>
-      <c r="J13" s="6">
-        <v>552</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="27">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="24">
-        <v>44588</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="28">
-        <v>3</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1020</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="25">
-        <v>-84</v>
-      </c>
-      <c r="L14" s="27">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="53">
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="49">
         <v>3</v>
       </c>
     </row>
@@ -2843,9 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A5852-8F4A-4528-8C9E-0E89588841C1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2861,254 +2845,254 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="16">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="D13" s="9">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1452</v>
+      </c>
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="5">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D15" s="9">
         <v>972</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D16" s="9">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="10">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="D17" s="9">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="10">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="D18" s="9">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="D19" s="9">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1452</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12">
-        <v>4</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>1182</v>
       </c>
     </row>
@@ -3116,31 +3100,31 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="1">
         <v>-84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="3">
         <v>-0.15</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
-        <v>79</v>
+      <c r="B24" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="1">
         <v>70</v>
@@ -3173,274 +3157,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>86</v>
+      <c r="A1" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>90</v>
+      <c r="A2" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="51">
+        <v>5940</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1872</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="33">
+        <v>3168</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2712</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C9" s="33">
+        <v>2664</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="C10" s="33">
+        <v>5344</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="33">
+        <v>5532</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="55">
-        <v>5940</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="C13" s="33">
+        <v>2904</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="33">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="37">
-        <v>1872</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="37">
-        <v>3168</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="C15" s="33">
+        <v>1578</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="37">
-        <v>2712</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="C16" s="33">
+        <v>1518</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="37">
-        <v>2664</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="37">
-        <v>5344</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="37">
-        <v>5532</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="C17" s="33">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="C18" s="33">
+        <v>1392</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="37">
+      <c r="B19" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="37">
-        <v>2904</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="37">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="37">
-        <v>1578</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="37">
-        <v>1518</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="37">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="37">
-        <v>1392</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="38">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="34"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="35"/>
-      <c r="B20" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="56">
+      <c r="A20" s="31"/>
+      <c r="B20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="52">
         <v>34624</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
